--- a/表结构.xlsx
+++ b/表结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\动物园代码\站点测试工具\WebTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEFD230-8FC7-4848-858F-DE97813956CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF24300C-9D6C-4280-A84B-D3D15046F6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="675" windowWidth="22560" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="825" windowWidth="10275" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>webTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,12 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -409,49 +424,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
